--- a/AutoBM/Table/ItemExp.xlsx
+++ b/AutoBM/Table/ItemExp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6317FF-2455-4645-ADC9-6F7A572FE5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1302A462-8A58-4A9F-A82A-3C8EADDB5962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1485" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30450" yWindow="1575" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,95 +443,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>특가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의문의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>룬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>패키지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미사용)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>PACKAGE_PAY_TRANSCEND_5POINT_210831</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -540,54 +451,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에테르</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>패키지 (미사용)</t>
-    </r>
+    <t>에테르 선택 패키지 (미사용)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>특가 의문의 룬 패키지 (미사용)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -673,11 +541,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -961,7 +830,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1002,23 +871,23 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
